--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from TRE_R85-RolePris" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_G15-Professi" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T09:00:00+01:00</t>
+    <t>2023-11-24T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -223,6 +222,18 @@
     <t>Assistant médical</t>
   </si>
   <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Responsable de secteur</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>Biologiste médical ni médecin ni pharmacien</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -230,15 +241,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R85-RolePriseCharge/FHIR/TRE-R85-RolePriseCharge</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Pharmacien</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_G15-ProfessionSante/FHIR/TRE-G15-ProfessionSante</t>
   </si>
 </sst>
 </file>
@@ -501,7 +503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,64 +694,31 @@
         <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B2" t="s" s="2">
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s" s="2">
+      <c r="B25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>74</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.200</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.200</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-24T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Biologiste médical ni médecin ni pharmacien</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Gestionnaire alertes et urgences sanitaires</t>
   </si>
   <si>
     <t/>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,15 +716,23 @@
         <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>Property</t>
   </si>
@@ -75,6 +75,12 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -238,9 +244,6 @@
   </si>
   <si>
     <t>Gestionnaire alertes et urgences sanitaires</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -380,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -486,20 +489,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -521,218 +532,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R85-RolePris" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -219,7 +219,7 @@
     <t>331</t>
   </si>
   <si>
-    <t>Secrétaire médicale</t>
+    <t>Secrétaire assistante médico-administrative</t>
   </si>
   <si>
     <t>332</t>
@@ -244,6 +244,186 @@
   </si>
   <si>
     <t>Gestionnaire alertes et urgences sanitaires</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans l'accueil et l'orientation des personnes</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans la logistique</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans l'hôtellerie et la restauration</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans la direction de la qualité, hygiène, sécurité et environnement</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans la direction des systèmes d'information</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans la direction des finances et comptabilité</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans la direction de la communication</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans la direction des ressources humaines</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans la direction des affaires médicales</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>Autre professionnel intervenant dans le social, éducatif, psychologie et culturel</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>Etudiant - aide-soignant</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>Etudiant - auxiliaire de puériculture</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>Etudiant - masseur-kinésithérapeute</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>Externe en médecine</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>Externe en odontologie</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>Externe en maïeutique</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>Externe en pharmacie</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>Autre étudiant</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>Directeur d'établissement</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>Brancardier</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>Educateur en activité physique adaptée</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>Technicien d'informations médicales</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>Attaché de recherche clinique</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>Praticien A Diplôme Hors Union Européenne (PADHUE)</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>Gestionnaire admissions / frais de séjour / traitement externe</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>Archiviste</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>Surveillant de nuit</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>Animateur</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>Biologiste médical non-médecin</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>Opérateur de Soins Non Programmés</t>
   </si>
   <si>
     <t>System URI</t>
@@ -520,7 +700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,18 +912,258 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
+++ b/ig/main/ValueSet-JDV-J121-RolePriseCharge-ENREG.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
